--- a/db_data_insert/患者其它信息.xlsx
+++ b/db_data_insert/患者其它信息.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BUAA\Courses\经管课程\信息系统分析与设计\MIS_Project\HIS_void\db_data_insert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE10342-C88F-4A08-ABB3-FD01BB03B3E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD071CA-FD7A-4137-ABE3-56B19CF7D580}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5964" yWindow="2880" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2669" uniqueCount="2002">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2670" uniqueCount="2003">
   <si>
     <t>就诊号</t>
   </si>
@@ -6118,6 +6118,10 @@
   <si>
     <t>阿曲库铵</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>护理记录编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -20080,403 +20084,468 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="7" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2002</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1909</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1910</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1911</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1912</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>1898</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>1908</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1909</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1910</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>1911</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>1912</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="8"/>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>120</v>
+      </c>
+      <c r="D2">
+        <v>80</v>
+      </c>
+      <c r="E2" s="9">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>1899</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2">
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="6" customFormat="1">
+      <c r="A3" s="8"/>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6">
+        <v>155</v>
+      </c>
+      <c r="D3" s="6">
+        <v>110</v>
+      </c>
+      <c r="E3" s="10">
+        <v>36.5</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>1900</v>
+      </c>
+      <c r="H3" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="8"/>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>115</v>
+      </c>
+      <c r="D4">
+        <v>79</v>
+      </c>
+      <c r="E4" s="9">
+        <v>36.820641103265793</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>1901</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="8"/>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>123</v>
+      </c>
+      <c r="D5">
+        <v>75</v>
+      </c>
+      <c r="E5" s="9">
+        <v>37.35522150419289</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>1902</v>
+      </c>
+      <c r="H5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="8"/>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>127</v>
+      </c>
+      <c r="D6">
+        <v>82</v>
+      </c>
+      <c r="E6" s="9">
+        <v>37.207827267513963</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>1903</v>
+      </c>
+      <c r="H6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="8"/>
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>117</v>
+      </c>
+      <c r="D7">
+        <v>81</v>
+      </c>
+      <c r="E7" s="9">
+        <v>37.423946837031238</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>1904</v>
+      </c>
+      <c r="H7" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="8"/>
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8">
         <v>120</v>
       </c>
-      <c r="E2">
-        <v>80</v>
-      </c>
-      <c r="F2" s="9">
-        <v>36.799999999999997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="6" customFormat="1">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="D8">
+        <v>75</v>
+      </c>
+      <c r="E8" s="9">
+        <v>37.257997060020131</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>1905</v>
+      </c>
+      <c r="H8" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="8"/>
+      <c r="B9" s="1">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>121</v>
+      </c>
+      <c r="D9">
+        <v>89</v>
+      </c>
+      <c r="E9" s="9">
+        <v>36.612769330694952</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>1906</v>
+      </c>
+      <c r="H9" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="8"/>
+      <c r="B10" s="1">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>140</v>
+      </c>
+      <c r="D10">
+        <v>93</v>
+      </c>
+      <c r="E10" s="9">
+        <v>36.683689145937976</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>1907</v>
+      </c>
+      <c r="H10" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="8"/>
+      <c r="B11" s="1">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>135</v>
+      </c>
+      <c r="D11">
+        <v>99</v>
+      </c>
+      <c r="E11" s="9">
+        <v>37.285875094470256</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>1899</v>
+      </c>
+      <c r="H11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="8"/>
+      <c r="B12" s="1">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>145</v>
+      </c>
+      <c r="D12">
+        <v>101</v>
+      </c>
+      <c r="E12" s="9">
+        <v>37.010883638233807</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>1900</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="6">
-        <v>155</v>
-      </c>
-      <c r="E3" s="6">
+      <c r="H12" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="8"/>
+      <c r="B13" s="1">
+        <v>12</v>
+      </c>
+      <c r="C13">
         <v>110</v>
       </c>
-      <c r="F3" s="10">
-        <v>36.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="D13">
+        <v>70</v>
+      </c>
+      <c r="E13" s="9">
+        <v>36.625489554173022</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>1901</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4">
-        <v>115</v>
-      </c>
-      <c r="E4">
-        <v>79</v>
-      </c>
-      <c r="F4" s="9">
-        <v>36.820641103265793</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="H13" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="8"/>
+      <c r="B14" s="1">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>103</v>
+      </c>
+      <c r="D14">
+        <v>65</v>
+      </c>
+      <c r="E14" s="9">
+        <v>37.192391945291007</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>1902</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5">
-        <v>123</v>
-      </c>
-      <c r="E5">
-        <v>75</v>
-      </c>
-      <c r="F5" s="9">
-        <v>37.35522150419289</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="H14" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="8"/>
+      <c r="B15" s="1">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
+      </c>
+      <c r="D15">
+        <v>70</v>
+      </c>
+      <c r="E15" s="9">
+        <v>36.854639454992977</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>1903</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6">
-        <v>127</v>
-      </c>
-      <c r="E6">
-        <v>82</v>
-      </c>
-      <c r="F6" s="9">
-        <v>37.207827267513963</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="H15" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="8"/>
+      <c r="B16" s="1">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>120</v>
+      </c>
+      <c r="D16">
+        <v>81</v>
+      </c>
+      <c r="E16" s="9">
+        <v>36.985646025132347</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>1904</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7">
-        <v>117</v>
-      </c>
-      <c r="E7">
-        <v>81</v>
-      </c>
-      <c r="F7" s="9">
-        <v>37.423946837031238</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="H16" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="8"/>
+      <c r="B17" s="1">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>125</v>
+      </c>
+      <c r="D17">
+        <v>78</v>
+      </c>
+      <c r="E17" s="9">
+        <v>36.895355700696463</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>1905</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8">
+      <c r="H17" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="8"/>
+      <c r="B18" s="1">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>132</v>
+      </c>
+      <c r="D18">
+        <v>89</v>
+      </c>
+      <c r="E18" s="9">
+        <v>37.122367017787141</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>1906</v>
+      </c>
+      <c r="H18" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="8"/>
+      <c r="B19" s="1">
+        <v>18</v>
+      </c>
+      <c r="C19">
         <v>120</v>
       </c>
-      <c r="E8">
-        <v>75</v>
-      </c>
-      <c r="F8" s="9">
-        <v>37.257997060020131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>1906</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9">
-        <v>121</v>
-      </c>
-      <c r="E9">
-        <v>89</v>
-      </c>
-      <c r="F9" s="9">
-        <v>36.612769330694952</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="D19">
+        <v>78</v>
+      </c>
+      <c r="E19" s="9">
+        <v>37.103037840529289</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>1907</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10">
-        <v>140</v>
-      </c>
-      <c r="E10">
+      <c r="H19" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="8"/>
+      <c r="B20" s="1">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>136</v>
+      </c>
+      <c r="D20">
+        <v>90</v>
+      </c>
+      <c r="E20" s="9">
+        <v>37.399237486349989</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>1900</v>
+      </c>
+      <c r="H20" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="8"/>
+      <c r="B21" s="1">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>144</v>
+      </c>
+      <c r="D21">
         <v>93</v>
       </c>
-      <c r="F10" s="9">
-        <v>36.683689145937976</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11">
-        <v>135</v>
-      </c>
-      <c r="E11">
-        <v>99</v>
-      </c>
-      <c r="F11" s="9">
-        <v>37.285875094470256</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>1900</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12">
-        <v>145</v>
-      </c>
-      <c r="E12">
-        <v>101</v>
-      </c>
-      <c r="F12" s="9">
-        <v>37.010883638233807</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>1901</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13">
-        <v>110</v>
-      </c>
-      <c r="E13">
-        <v>70</v>
-      </c>
-      <c r="F13" s="9">
-        <v>36.625489554173022</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>1902</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14">
-        <v>103</v>
-      </c>
-      <c r="E14">
-        <v>65</v>
-      </c>
-      <c r="F14" s="9">
-        <v>37.192391945291007</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>1903</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15">
-        <v>100</v>
-      </c>
-      <c r="E15">
-        <v>70</v>
-      </c>
-      <c r="F15" s="9">
-        <v>36.854639454992977</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>1904</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16">
-        <v>120</v>
-      </c>
-      <c r="E16">
-        <v>81</v>
-      </c>
-      <c r="F16" s="9">
-        <v>36.985646025132347</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>1905</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17">
-        <v>125</v>
-      </c>
-      <c r="E17">
-        <v>78</v>
-      </c>
-      <c r="F17" s="9">
-        <v>36.895355700696463</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>1906</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18">
-        <v>132</v>
-      </c>
-      <c r="E18">
-        <v>89</v>
-      </c>
-      <c r="F18" s="9">
-        <v>37.122367017787141</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3" t="s">
+      <c r="E21" s="9">
+        <v>37.219910434172803</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>1907</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19">
-        <v>120</v>
-      </c>
-      <c r="E19">
-        <v>78</v>
-      </c>
-      <c r="F19" s="9">
-        <v>37.103037840529289</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>1900</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20">
-        <v>136</v>
-      </c>
-      <c r="E20">
-        <v>90</v>
-      </c>
-      <c r="F20" s="9">
-        <v>37.399237486349989</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1">
+      <c r="H21" s="1">
         <v>20</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>1907</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21">
-        <v>144</v>
-      </c>
-      <c r="E21">
-        <v>93</v>
-      </c>
-      <c r="F21" s="9">
-        <v>37.219910434172803</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -20484,7 +20553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
